--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col2a1-Ddr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col2a1-Ddr1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.03006733333333333</v>
+        <v>0.009821333333333333</v>
       </c>
       <c r="H2">
-        <v>0.090202</v>
+        <v>0.029464</v>
       </c>
       <c r="I2">
-        <v>0.2079297388257532</v>
+        <v>0.06297798848338983</v>
       </c>
       <c r="J2">
-        <v>0.2079297388257532</v>
+        <v>0.06297798848338984</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2763116666666667</v>
+        <v>0.141694</v>
       </c>
       <c r="N2">
-        <v>0.828935</v>
+        <v>0.425082</v>
       </c>
       <c r="O2">
-        <v>0.02083107478128044</v>
+        <v>0.01763793963212447</v>
       </c>
       <c r="P2">
-        <v>0.02083107478128044</v>
+        <v>0.01763793963212447</v>
       </c>
       <c r="Q2">
-        <v>0.008307954985555557</v>
+        <v>0.001391624005333333</v>
       </c>
       <c r="R2">
-        <v>0.07477159487</v>
+        <v>0.012524616048</v>
       </c>
       <c r="S2">
-        <v>0.004331399938731376</v>
+        <v>0.00111080195902266</v>
       </c>
       <c r="T2">
-        <v>0.004331399938731376</v>
+        <v>0.00111080195902266</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.03006733333333333</v>
+        <v>0.009821333333333333</v>
       </c>
       <c r="H3">
-        <v>0.090202</v>
+        <v>0.029464</v>
       </c>
       <c r="I3">
-        <v>0.2079297388257532</v>
+        <v>0.06297798848338983</v>
       </c>
       <c r="J3">
-        <v>0.2079297388257532</v>
+        <v>0.06297798848338984</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>6.542395</v>
       </c>
       <c r="O3">
-        <v>0.1644098988384798</v>
+        <v>0.2714637835982539</v>
       </c>
       <c r="P3">
-        <v>0.1644098988384798</v>
+        <v>0.2714637835982538</v>
       </c>
       <c r="Q3">
-        <v>0.06557079042111111</v>
+        <v>0.02141834736444444</v>
       </c>
       <c r="R3">
-        <v>0.59013711379</v>
+        <v>0.19276512628</v>
       </c>
       <c r="S3">
-        <v>0.03418570732585361</v>
+        <v>0.01709624303710826</v>
       </c>
       <c r="T3">
-        <v>0.0341857073258536</v>
+        <v>0.01709624303710826</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.03006733333333333</v>
+        <v>0.009821333333333333</v>
       </c>
       <c r="H4">
-        <v>0.090202</v>
+        <v>0.029464</v>
       </c>
       <c r="I4">
-        <v>0.2079297388257532</v>
+        <v>0.06297798848338983</v>
       </c>
       <c r="J4">
-        <v>0.2079297388257532</v>
+        <v>0.06297798848338984</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.807288</v>
+        <v>5.710985666666667</v>
       </c>
       <c r="N4">
-        <v>32.421864</v>
+        <v>17.132957</v>
       </c>
       <c r="O4">
-        <v>0.8147590263802398</v>
+        <v>0.7108982767696218</v>
       </c>
       <c r="P4">
-        <v>0.8147590263802398</v>
+        <v>0.7108982767696217</v>
       </c>
       <c r="Q4">
-        <v>0.3249463307253334</v>
+        <v>0.05608949389422222</v>
       </c>
       <c r="R4">
-        <v>2.924516976528</v>
+        <v>0.5048054450480001</v>
       </c>
       <c r="S4">
-        <v>0.1694126315611683</v>
+        <v>0.04477094348725891</v>
       </c>
       <c r="T4">
-        <v>0.1694126315611682</v>
+        <v>0.04477094348725892</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.151954</v>
       </c>
       <c r="I5">
-        <v>0.350277771374565</v>
+        <v>0.3247949111459754</v>
       </c>
       <c r="J5">
-        <v>0.3502777713745649</v>
+        <v>0.3247949111459754</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2763116666666667</v>
+        <v>0.141694</v>
       </c>
       <c r="N5">
-        <v>0.828935</v>
+        <v>0.425082</v>
       </c>
       <c r="O5">
-        <v>0.02083107478128044</v>
+        <v>0.01763793963212447</v>
       </c>
       <c r="P5">
-        <v>0.02083107478128044</v>
+        <v>0.01763793963212447</v>
       </c>
       <c r="Q5">
-        <v>0.01399555433222222</v>
+        <v>0.007176990025333333</v>
       </c>
       <c r="R5">
-        <v>0.12595998899</v>
+        <v>0.064592910228</v>
       </c>
       <c r="S5">
-        <v>0.007296662449723814</v>
+        <v>0.005728713035613944</v>
       </c>
       <c r="T5">
-        <v>0.007296662449723814</v>
+        <v>0.005728713035613944</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.151954</v>
       </c>
       <c r="I6">
-        <v>0.350277771374565</v>
+        <v>0.3247949111459754</v>
       </c>
       <c r="J6">
-        <v>0.3502777713745649</v>
+        <v>0.3247949111459754</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>6.542395</v>
       </c>
       <c r="O6">
-        <v>0.1644098988384798</v>
+        <v>0.2714637835982539</v>
       </c>
       <c r="P6">
-        <v>0.1644098988384798</v>
+        <v>0.2714637835982538</v>
       </c>
       <c r="Q6">
         <v>0.1104603433144444</v>
@@ -818,10 +818,10 @@
         <v>0.99414308983</v>
       </c>
       <c r="S6">
-        <v>0.05758913295706036</v>
+        <v>0.08817005547314516</v>
       </c>
       <c r="T6">
-        <v>0.05758913295706036</v>
+        <v>0.08817005547314516</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.151954</v>
       </c>
       <c r="I7">
-        <v>0.350277771374565</v>
+        <v>0.3247949111459754</v>
       </c>
       <c r="J7">
-        <v>0.3502777713745649</v>
+        <v>0.3247949111459754</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.807288</v>
+        <v>5.710985666666667</v>
       </c>
       <c r="N7">
-        <v>32.421864</v>
+        <v>17.132957</v>
       </c>
       <c r="O7">
-        <v>0.8147590263802398</v>
+        <v>0.7108982767696218</v>
       </c>
       <c r="P7">
-        <v>0.8147590263802398</v>
+        <v>0.7108982767696217</v>
       </c>
       <c r="Q7">
-        <v>0.5474035469173333</v>
+        <v>0.2892690386642222</v>
       </c>
       <c r="R7">
-        <v>4.926631922256</v>
+        <v>2.603421347978</v>
       </c>
       <c r="S7">
-        <v>0.2853919759677808</v>
+        <v>0.2308961426372163</v>
       </c>
       <c r="T7">
-        <v>0.2853919759677807</v>
+        <v>0.2308961426372163</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.06388466666666666</v>
+        <v>0.09547600000000001</v>
       </c>
       <c r="H8">
-        <v>0.191654</v>
+        <v>0.286428</v>
       </c>
       <c r="I8">
-        <v>0.4417924897996819</v>
+        <v>0.6122271003706348</v>
       </c>
       <c r="J8">
-        <v>0.4417924897996818</v>
+        <v>0.6122271003706349</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.2763116666666667</v>
+        <v>0.141694</v>
       </c>
       <c r="N8">
-        <v>0.828935</v>
+        <v>0.425082</v>
       </c>
       <c r="O8">
-        <v>0.02083107478128044</v>
+        <v>0.01763793963212447</v>
       </c>
       <c r="P8">
-        <v>0.02083107478128044</v>
+        <v>0.01763793963212447</v>
       </c>
       <c r="Q8">
-        <v>0.01765207872111111</v>
+        <v>0.013528376344</v>
       </c>
       <c r="R8">
-        <v>0.15886870849</v>
+        <v>0.121755387096</v>
       </c>
       <c r="S8">
-        <v>0.00920301239282525</v>
+        <v>0.01079842463748786</v>
       </c>
       <c r="T8">
-        <v>0.009203012392825248</v>
+        <v>0.01079842463748786</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.06388466666666666</v>
+        <v>0.09547600000000001</v>
       </c>
       <c r="H9">
-        <v>0.191654</v>
+        <v>0.286428</v>
       </c>
       <c r="I9">
-        <v>0.4417924897996819</v>
+        <v>0.6122271003706348</v>
       </c>
       <c r="J9">
-        <v>0.4417924897996818</v>
+        <v>0.6122271003706349</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>6.542395</v>
       </c>
       <c r="O9">
-        <v>0.1644098988384798</v>
+        <v>0.2714637835982539</v>
       </c>
       <c r="P9">
-        <v>0.1644098988384798</v>
+        <v>0.2714637835982538</v>
       </c>
       <c r="Q9">
-        <v>0.1393195745922222</v>
+        <v>0.2082139016733333</v>
       </c>
       <c r="R9">
-        <v>1.25387617133</v>
+        <v>1.87392511506</v>
       </c>
       <c r="S9">
-        <v>0.0726350585555658</v>
+        <v>0.1661974850880005</v>
       </c>
       <c r="T9">
-        <v>0.07263505855556579</v>
+        <v>0.1661974850880005</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.06388466666666666</v>
+        <v>0.09547600000000001</v>
       </c>
       <c r="H10">
-        <v>0.191654</v>
+        <v>0.286428</v>
       </c>
       <c r="I10">
-        <v>0.4417924897996819</v>
+        <v>0.6122271003706348</v>
       </c>
       <c r="J10">
-        <v>0.4417924897996818</v>
+        <v>0.6122271003706349</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.807288</v>
+        <v>5.710985666666667</v>
       </c>
       <c r="N10">
-        <v>32.421864</v>
+        <v>17.132957</v>
       </c>
       <c r="O10">
-        <v>0.8147590263802398</v>
+        <v>0.7108982767696218</v>
       </c>
       <c r="P10">
-        <v>0.8147590263802398</v>
+        <v>0.7108982767696217</v>
       </c>
       <c r="Q10">
-        <v>0.6904199914506666</v>
+        <v>0.5452620675106667</v>
       </c>
       <c r="R10">
-        <v>6.213779923055999</v>
+        <v>4.907358607596001</v>
       </c>
       <c r="S10">
-        <v>0.3599544188512909</v>
+        <v>0.4352311906451465</v>
       </c>
       <c r="T10">
-        <v>0.3599544188512908</v>
+        <v>0.4352311906451465</v>
       </c>
     </row>
   </sheetData>
